--- a/results/I3_N5_M3_T30_C150_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.0766027149057</v>
+        <v>1322.041957420743</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.799020687881951</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.78329414108774</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4399999999987</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.77588400245558</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.8863479000213</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.201656242593717</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.83692585281499</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.79834375740629</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.34465129663435</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,160 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000004</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.475</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.77</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.265</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>156.56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>161.41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>155.9399999999993</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999979</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999979</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999978</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999977</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999978</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.4</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>122.0650000000008</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.7150000000008</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.2100000000008</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6300000000008</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>156.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>145.3950000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>163.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>167.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>168.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>166.265</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>16.265</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2066,10 +2275,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2077,10 +2286,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2088,10 +2297,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2099,10 +2308,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2110,10 +2319,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2121,10 +2330,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2132,10 +2341,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2143,12 +2352,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
